--- a/data_year/zb/文化/文物业基本情况/文物业从有关部门接收文物数.xlsx
+++ b/data_year/zb/文化/文物业基本情况/文物业从有关部门接收文物数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,522 +498,487 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>141</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>13827</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1285</v>
+      </c>
       <c r="E2" t="n">
-        <v>17647</v>
+        <v>11385</v>
       </c>
       <c r="F2" t="n">
-        <v>9731</v>
+        <v>24749</v>
       </c>
       <c r="G2" t="n">
-        <v>45300</v>
+        <v>38600</v>
       </c>
       <c r="H2" t="n">
-        <v>3607</v>
+        <v>3702</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>647</v>
-      </c>
-      <c r="K2" t="inlineStr"/>
+        <v>171</v>
+      </c>
+      <c r="K2" t="n">
+        <v>37315</v>
+      </c>
       <c r="L2" t="n">
-        <v>41046</v>
+        <v>20900</v>
       </c>
       <c r="M2" t="n">
-        <v>17781</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4005</v>
+        <v>413802</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>7856</v>
       </c>
       <c r="D3" t="n">
-        <v>1163</v>
+        <v>932</v>
       </c>
       <c r="E3" t="n">
-        <v>27587</v>
+        <v>16230</v>
       </c>
       <c r="F3" t="n">
-        <v>8076</v>
+        <v>15753</v>
       </c>
       <c r="G3" t="n">
-        <v>49127</v>
+        <v>447827</v>
       </c>
       <c r="H3" t="n">
-        <v>4682</v>
+        <v>5265</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>225</v>
+        <v>11</v>
       </c>
       <c r="K3" t="n">
-        <v>47964</v>
+        <v>446895</v>
       </c>
       <c r="L3" t="n">
-        <v>44211</v>
+        <v>434695</v>
       </c>
       <c r="M3" t="n">
-        <v>9459</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3871</v>
+      </c>
       <c r="C4" t="n">
-        <v>13827</v>
+        <v>53</v>
       </c>
       <c r="D4" t="n">
-        <v>1285</v>
+        <v>18081</v>
       </c>
       <c r="E4" t="n">
-        <v>11385</v>
+        <v>28451</v>
       </c>
       <c r="F4" t="n">
-        <v>24749</v>
+        <v>12770</v>
       </c>
       <c r="G4" t="n">
-        <v>38600</v>
+        <v>48855</v>
       </c>
       <c r="H4" t="n">
-        <v>3702</v>
+        <v>1487</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>37315</v>
+        <v>30774</v>
       </c>
       <c r="L4" t="n">
-        <v>20900</v>
+        <v>47314</v>
       </c>
       <c r="M4" t="n">
-        <v>2466</v>
+        <v>3763</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>413802</v>
+        <v>11312</v>
       </c>
       <c r="C5" t="n">
-        <v>7856</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>932</v>
+        <v>48952</v>
       </c>
       <c r="E5" t="n">
-        <v>16230</v>
+        <v>79765</v>
       </c>
       <c r="F5" t="n">
-        <v>15753</v>
+        <v>31673</v>
       </c>
       <c r="G5" t="n">
-        <v>447827</v>
+        <v>127264</v>
       </c>
       <c r="H5" t="n">
-        <v>5265</v>
+        <v>14144</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="K5" t="n">
-        <v>446895</v>
+        <v>78312</v>
       </c>
       <c r="L5" t="n">
-        <v>434695</v>
+        <v>113070</v>
       </c>
       <c r="M5" t="n">
-        <v>2042</v>
+        <v>4514</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3871</v>
+        <v>904</v>
       </c>
       <c r="C6" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>18081</v>
+        <v>162377</v>
       </c>
       <c r="E6" t="n">
-        <v>28451</v>
+        <v>175784</v>
       </c>
       <c r="F6" t="n">
-        <v>12770</v>
+        <v>9525</v>
       </c>
       <c r="G6" t="n">
-        <v>48855</v>
+        <v>189515</v>
       </c>
       <c r="H6" t="n">
-        <v>1487</v>
+        <v>2966</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="K6" t="n">
-        <v>30774</v>
+        <v>27138</v>
       </c>
       <c r="L6" t="n">
-        <v>47314</v>
+        <v>186236</v>
       </c>
       <c r="M6" t="n">
-        <v>3763</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11312</v>
+        <v>532</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>1678</v>
       </c>
       <c r="D7" t="n">
-        <v>48952</v>
+        <v>1523</v>
       </c>
       <c r="E7" t="n">
-        <v>79765</v>
+        <v>27573</v>
       </c>
       <c r="F7" t="n">
-        <v>31673</v>
+        <v>24549</v>
       </c>
       <c r="G7" t="n">
-        <v>127264</v>
+        <v>55962</v>
       </c>
       <c r="H7" t="n">
-        <v>14144</v>
+        <v>3945</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="K7" t="n">
-        <v>78312</v>
+        <v>54439</v>
       </c>
       <c r="L7" t="n">
-        <v>113070</v>
+        <v>50137</v>
       </c>
       <c r="M7" t="n">
-        <v>4514</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>904</v>
+        <v>398</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>7163</v>
       </c>
       <c r="D8" t="n">
-        <v>162377</v>
+        <v>10845</v>
       </c>
       <c r="E8" t="n">
-        <v>175784</v>
+        <v>48414</v>
       </c>
       <c r="F8" t="n">
-        <v>9525</v>
+        <v>44977</v>
       </c>
       <c r="G8" t="n">
-        <v>189515</v>
+        <v>99675</v>
       </c>
       <c r="H8" t="n">
-        <v>2966</v>
+        <v>5029</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>310</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>27138</v>
+        <v>88830</v>
       </c>
       <c r="L8" t="n">
-        <v>186236</v>
+        <v>87483</v>
       </c>
       <c r="M8" t="n">
-        <v>3302</v>
+        <v>5886</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>532</v>
+        <v>1179</v>
       </c>
       <c r="C9" t="n">
-        <v>1678</v>
+        <v>4045</v>
       </c>
       <c r="D9" t="n">
-        <v>1523</v>
+        <v>4616</v>
       </c>
       <c r="E9" t="n">
-        <v>27573</v>
+        <v>21722</v>
       </c>
       <c r="F9" t="n">
-        <v>24549</v>
+        <v>16847</v>
       </c>
       <c r="G9" t="n">
-        <v>55962</v>
+        <v>44418</v>
       </c>
       <c r="H9" t="n">
-        <v>3945</v>
+        <v>6593</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>202</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>54439</v>
+        <v>39802</v>
       </c>
       <c r="L9" t="n">
-        <v>50137</v>
+        <v>33780</v>
       </c>
       <c r="M9" t="n">
-        <v>3308</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>398</v>
+        <v>1628</v>
       </c>
       <c r="C10" t="n">
-        <v>7163</v>
+        <v>2220</v>
       </c>
       <c r="D10" t="n">
-        <v>10845</v>
+        <v>1822</v>
       </c>
       <c r="E10" t="n">
-        <v>48414</v>
+        <v>39354</v>
       </c>
       <c r="F10" t="n">
-        <v>44977</v>
+        <v>44273</v>
       </c>
       <c r="G10" t="n">
-        <v>99675</v>
+        <v>209517</v>
       </c>
       <c r="H10" t="n">
-        <v>5029</v>
+        <v>18468</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>452</v>
+      </c>
       <c r="K10" t="n">
-        <v>88830</v>
+        <v>207695</v>
       </c>
       <c r="L10" t="n">
-        <v>87483</v>
+        <v>188377</v>
       </c>
       <c r="M10" t="n">
-        <v>5886</v>
+        <v>124262</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1179</v>
+        <v>1010</v>
       </c>
       <c r="C11" t="n">
-        <v>4045</v>
+        <v>222</v>
       </c>
       <c r="D11" t="n">
-        <v>4616</v>
+        <v>2013</v>
       </c>
       <c r="E11" t="n">
-        <v>21722</v>
+        <v>16918</v>
       </c>
       <c r="F11" t="n">
-        <v>16847</v>
+        <v>59927</v>
       </c>
       <c r="G11" t="n">
-        <v>44418</v>
+        <v>81498</v>
       </c>
       <c r="H11" t="n">
-        <v>6593</v>
+        <v>5361</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>5136</v>
+      </c>
       <c r="K11" t="n">
-        <v>39802</v>
+        <v>79485</v>
       </c>
       <c r="L11" t="n">
-        <v>33780</v>
+        <v>70779</v>
       </c>
       <c r="M11" t="n">
-        <v>4670</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1628</v>
+        <v>673</v>
       </c>
       <c r="C12" t="n">
-        <v>2220</v>
+        <v>10058</v>
       </c>
       <c r="D12" t="n">
-        <v>1822</v>
+        <v>16672</v>
       </c>
       <c r="E12" t="n">
-        <v>39354</v>
+        <v>96043</v>
       </c>
       <c r="F12" t="n">
-        <v>44273</v>
+        <v>40208</v>
       </c>
       <c r="G12" t="n">
-        <v>209517</v>
+        <v>175623</v>
       </c>
       <c r="H12" t="n">
-        <v>18468</v>
+        <v>3009</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>452</v>
+        <v>157</v>
       </c>
       <c r="K12" t="n">
-        <v>207695</v>
+        <v>158951</v>
       </c>
       <c r="L12" t="n">
-        <v>188377</v>
+        <v>162399</v>
       </c>
       <c r="M12" t="n">
-        <v>124262</v>
+        <v>38699</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2019年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1010</v>
+        <v>19</v>
       </c>
       <c r="C13" t="n">
-        <v>222</v>
+        <v>1136</v>
       </c>
       <c r="D13" t="n">
-        <v>2013</v>
+        <v>1820</v>
       </c>
       <c r="E13" t="n">
-        <v>16918</v>
+        <v>18337</v>
       </c>
       <c r="F13" t="n">
-        <v>59927</v>
+        <v>61294</v>
       </c>
       <c r="G13" t="n">
-        <v>81498</v>
+        <v>85848</v>
       </c>
       <c r="H13" t="n">
-        <v>5361</v>
+        <v>1910</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>5136</v>
+        <v>1341</v>
       </c>
       <c r="K13" t="n">
-        <v>79485</v>
+        <v>84028</v>
       </c>
       <c r="L13" t="n">
-        <v>70779</v>
+        <v>81461</v>
       </c>
       <c r="M13" t="n">
-        <v>3643</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>673</v>
-      </c>
-      <c r="C14" t="n">
-        <v>10058</v>
-      </c>
-      <c r="D14" t="n">
-        <v>16672</v>
-      </c>
-      <c r="E14" t="n">
-        <v>96043</v>
-      </c>
-      <c r="F14" t="n">
-        <v>40208</v>
-      </c>
-      <c r="G14" t="n">
-        <v>175623</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3009</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>157</v>
-      </c>
-      <c r="K14" t="n">
-        <v>158951</v>
-      </c>
-      <c r="L14" t="n">
-        <v>162399</v>
-      </c>
-      <c r="M14" t="n">
-        <v>38699</v>
+        <v>6198</v>
       </c>
     </row>
   </sheetData>
